--- a/Pneumatic System Bill of Materials.xlsx
+++ b/Pneumatic System Bill of Materials.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Pneumatic System Wiring Diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\MillerLab\Pneumatics Github\OpenSourcePneumaticSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Quantity</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Ethernet Expansion Module</t>
   </si>
   <si>
-    <t>Ledwholesalers.com</t>
-  </si>
-  <si>
     <t>32u4</t>
   </si>
   <si>
@@ -89,12 +86,6 @@
     <t>Optional. Allows connectivity with network servers</t>
   </si>
   <si>
-    <t>Homedepot.com</t>
-  </si>
-  <si>
-    <t>On Stage Stands Tabletop Rack Stand</t>
-  </si>
-  <si>
     <t>Amazon.com</t>
   </si>
   <si>
@@ -116,12 +107,6 @@
     <t>Model listed is for 1/4" OD tubing. Choose fittings based on desired tubing diameter</t>
   </si>
   <si>
-    <t>Power supplies of 6.5-32V are compatible</t>
-  </si>
-  <si>
-    <t>One used to adjust pressure before I/P transducer. Other used as analog gauge in-line w/ digital gauge</t>
-  </si>
-  <si>
     <t>Aluminum DIN Rails</t>
   </si>
   <si>
@@ -131,16 +116,52 @@
     <t>528-16-700DIN</t>
   </si>
   <si>
-    <t>More or fewer rails can be purchased based on mounting style</t>
-  </si>
-  <si>
     <t>Used with aluminum DIN rails to vertically mount components</t>
   </si>
   <si>
     <t>Recommended Items</t>
   </si>
   <si>
-    <t>Useful Documents</t>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>OnStage</t>
+  </si>
+  <si>
+    <t>Industruino</t>
+  </si>
+  <si>
+    <t>Omega</t>
+  </si>
+  <si>
+    <t>MettleAir</t>
+  </si>
+  <si>
+    <t>VIAIR</t>
+  </si>
+  <si>
+    <t>LED Wholesalers</t>
+  </si>
+  <si>
+    <t>OnStage Stands Tabletop Rack Stand</t>
+  </si>
+  <si>
+    <t>Schneider Electric</t>
+  </si>
+  <si>
+    <t>Note: scroll down on webpage to find correct model no.</t>
+  </si>
+  <si>
+    <t>The listed I/P requires at least 24V and Industruino can handle up to 32V</t>
+  </si>
+  <si>
+    <t>The firmware used is small; we didn't need the Industruino with more memory</t>
+  </si>
+  <si>
+    <t>One used to regulate pressure before I/P transducer. Other used as analog gauge in-line w/ digital gauge</t>
+  </si>
+  <si>
+    <t>Rails need to be cut in half to fit the rack stand. Number of rails is up to you</t>
   </si>
 </sst>
 </file>
@@ -284,10 +305,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -308,271 +329,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>1219200</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>7620</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1158240</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>15240</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1181100</xdr:colOff>
-          <xdr:row>16</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>243840</xdr:colOff>
-          <xdr:row>48</xdr:row>
-          <xdr:rowOff>83820</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1030" name="Object 6" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1030"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>1</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>53340</xdr:colOff>
-          <xdr:row>83</xdr:row>
-          <xdr:rowOff>160020</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1031" name="Object 7" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1031"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>99060</xdr:colOff>
-          <xdr:row>51</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>327660</xdr:colOff>
-          <xdr:row>81</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1032" name="Object 8" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1032"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -651,6 +407,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -686,6 +459,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -837,104 +627,123 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="80.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="46.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="80.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3">
         <v>124.43</v>
       </c>
-      <c r="F3" s="3">
-        <f>A3*E3</f>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <f>F3*E3</f>
         <v>124.43</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3">
-        <v>350</v>
-      </c>
-      <c r="F4" s="3">
-        <f>A4*E4</f>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+        <v>398</v>
+      </c>
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G15" si="0">F4*E4</f>
+        <v>398</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>12</v>
@@ -942,327 +751,232 @@
       <c r="E5" s="3">
         <v>35</v>
       </c>
-      <c r="F5" s="3">
-        <f>A5*E5</f>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>26</v>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3">
         <v>16.37</v>
       </c>
-      <c r="F6" s="3">
-        <f>A6*E6</f>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
         <v>16.37</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E7" s="10" t="s">
+      <c r="H6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="11">
-        <f>SUM(F3:F6)</f>
-        <v>525.79999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="23.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1" t="s">
+      <c r="G7" s="12">
+        <f>SUM(G3:G6)</f>
+        <v>573.80000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B9" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="3">
         <v>32.799999999999997</v>
       </c>
-      <c r="F9" s="3">
-        <f>A9*E9</f>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D10" s="1">
         <v>90150</v>
       </c>
       <c r="E10" s="6">
-        <v>29.95</v>
-      </c>
-      <c r="F10" s="3">
-        <f>A10*E10</f>
-        <v>59.9</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
+        <v>29.93</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <f t="shared" si="0"/>
+        <v>59.86</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B11" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="3">
-        <v>475</v>
-      </c>
-      <c r="F11" s="3">
-        <f>A11*E11</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+        <v>485</v>
+      </c>
+      <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
+      <c r="G11" s="3">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6">
         <v>29.95</v>
       </c>
-      <c r="F12" s="3">
-        <f>A12*E12</f>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="0"/>
         <v>29.95</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
+      <c r="H12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E13" s="3">
         <v>6.69</v>
       </c>
-      <c r="F13" s="3">
-        <f>A13*E13</f>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="0"/>
         <v>20.07</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E14" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="11">
-        <f>SUM(F7:F13)</f>
-        <v>1143.52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
+      <c r="H13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G7,G9:G13)</f>
+        <v>1201.48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1"/>
+    <hyperlink ref="B12" r:id="rId2"/>
+    <hyperlink ref="B11" r:id="rId3"/>
+    <hyperlink ref="B10" r:id="rId4"/>
+    <hyperlink ref="B9" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
+    <hyperlink ref="B3" r:id="rId9"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="AcroExch.Document.DC" shapeId="1028" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="AcroExch.Document.DC" shapeId="1028" r:id="rId4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="AcroExch.Document.DC" shapeId="1029" r:id="rId6">
-          <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>7620</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1158240</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>15240</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="AcroExch.Document.DC" shapeId="1029" r:id="rId6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="AcroExch.Document.DC" shapeId="1030" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>243840</xdr:colOff>
-                <xdr:row>48</xdr:row>
-                <xdr:rowOff>83820</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="AcroExch.Document.DC" shapeId="1030" r:id="rId8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="AcroExch.Document.DC" shapeId="1031" r:id="rId10">
-          <objectPr defaultSize="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>53340</xdr:colOff>
-                <xdr:row>83</xdr:row>
-                <xdr:rowOff>160020</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="AcroExch.Document.DC" shapeId="1031" r:id="rId10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="AcroExch.Document.DC" shapeId="1032" r:id="rId12">
-          <objectPr defaultSize="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>99060</xdr:colOff>
-                <xdr:row>51</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>327660</xdr:colOff>
-                <xdr:row>81</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="AcroExch.Document.DC" shapeId="1032" r:id="rId12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
+  <pageSetup scale="51" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Pneumatic System Bill of Materials.xlsx
+++ b/Pneumatic System Bill of Materials.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\MillerLab\Pneumatics Github\OpenSourcePneumaticSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/b/G3_Docs/Professor/2013 Rice Bioe/GITHUB/OpenSourcePneumaticSystem/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33120" windowHeight="22660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -167,12 +170,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,6 +241,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -265,7 +274,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -628,34 +637,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5546875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="80.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -681,7 +690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -708,7 +717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -728,14 +737,14 @@
         <v>1</v>
       </c>
       <c r="G4" s="3">
-        <f t="shared" ref="G4:G15" si="0">F4*E4</f>
+        <f t="shared" ref="G4:G13" si="0">F4*E4</f>
         <v>398</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -762,7 +771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -789,7 +798,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
@@ -798,13 +807,13 @@
         <v>573.80000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -829,7 +838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -856,7 +865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -883,7 +892,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
@@ -910,7 +919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -937,7 +946,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F14" s="10" t="s">
         <v>24</v>
       </c>
@@ -946,25 +955,26 @@
         <v>1201.48</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="G15" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="11"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="11"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="11"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1"/>
     <hyperlink ref="B12" r:id="rId2"/>
@@ -977,6 +987,6 @@
     <hyperlink ref="B3" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" orientation="landscape" r:id="rId10"/>
+  <pageSetup scale="50" orientation="landscape" r:id="rId10"/>
 </worksheet>
 </file>